--- a/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
+++ b/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>诺安积极配置混合C</t>
   </si>
   <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
     <t>83.18</t>
   </si>
   <si>
     <t>7.16</t>
+  </si>
+  <si>
+    <t>0.4797</t>
+  </si>
+  <si>
+    <t>0.0544</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
+++ b/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>006007</t>
-  </si>
-  <si>
-    <t>006008</t>
-  </si>
-  <si>
-    <t>诺安积极配置混合A</t>
-  </si>
-  <si>
-    <t>诺安积极配置混合C</t>
-  </si>
-  <si>
-    <t>6.70</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>83.18</t>
-  </si>
-  <si>
-    <t>7.16</t>
-  </si>
-  <si>
-    <t>0.4797</t>
-  </si>
-  <si>
-    <t>0.0544</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
+++ b/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1123,4 +1124,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
+++ b/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1674,4 +1675,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
+++ b/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1683,7 +1684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1694,17 +1695,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1714,14 +1735,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1730,14 +1773,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.35</v>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4352</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1746,13 +1811,363 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
+++ b/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2082,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2093,17 +2094,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2113,14 +2134,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.92</v>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2129,14 +2172,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2145,14 +2210,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.35</v>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2161,13 +2248,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
+++ b/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2481,7 +2482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2492,17 +2493,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2512,14 +2533,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.59</v>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5725</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2528,14 +2571,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.92</v>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2544,14 +2609,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2560,14 +2647,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.35</v>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2576,13 +2685,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
+++ b/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4797</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006008</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0544</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
         <v>2</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>013414</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安积极配置混合A</t>
+          <t>太平智远三个月定期开放股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>90.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5157</t>
+          <t>0.5725</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>011738</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>15.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>37.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5156</t>
+          <t>0.1988</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -715,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519110</t>
+          <t>011739</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合A</t>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>37.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3871</t>
+          <t>0.1262</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -753,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519171</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浦银安盛医疗健康灵活配置混合</t>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>29.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3236</t>
+          <t>0.1172</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -791,32 +791,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>320012</t>
+          <t>010896</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安主题精选混合</t>
+          <t>太平价值增长股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2574</t>
+          <t>0.0604</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -829,300 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519120</t>
+          <t>010897</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛新兴产业混合</t>
+          <t>太平价值增长股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.09</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0983</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519113</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浦银安盛精致生活混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0957</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010054</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家健康产业混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.59</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0822</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006008</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0432</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519125</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.32</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.59</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519176</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>78.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>960031</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>浦银安盛价值成长混合H</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1187,36 +923,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002363</t>
+          <t>013414</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合A</t>
+          <t>太平智远三个月定期开放股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.08</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5261</t>
+          <t>0.5953</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1235,26 +971,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.36</t>
+          <t>25.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>49.82</t>
+          <t>54.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4587</t>
+          <t>0.3737</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1273,26 +1009,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49.82</t>
+          <t>54.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1830</t>
+          <t>0.1454</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1301,36 +1037,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011390</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安添祥6个月持有期混合型证券投资基金</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.43</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.05</t>
+          <t>88.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1380</t>
+          <t>0.1447</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1339,32 +1075,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001312</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合A</t>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>33.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1301</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1377,36 +1113,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>010896</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>太平价值增长股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>83.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1281</t>
+          <t>0.0870</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1415,36 +1151,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010896</t>
+          <t>010897</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平价值增长股票A</t>
+          <t>太平价值增长股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>83.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0902</t>
+          <t>0.0744</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1453,36 +1189,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002364</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1491,188 +1227,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002144</t>
+          <t>005696</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0864</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010897</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>太平价值增长股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005695</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0675</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2084,7 +1668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2105,7 +1689,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2135,36 +1719,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013414</t>
+          <t>002363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太平智远三个月定期开放股票</t>
+          <t>华安安康灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>51.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5953</t>
+          <t>0.5261</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2183,26 +1767,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.77</t>
+          <t>26.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>54.03</t>
+          <t>49.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3737</t>
+          <t>0.4587</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2221,26 +1805,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>54.03</t>
+          <t>49.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1454</t>
+          <t>0.1830</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2249,36 +1833,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>29.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1447</t>
+          <t>0.1380</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2287,32 +1871,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011390</t>
+          <t>001312</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安添祥6个月持有期混合型证券投资基金</t>
+          <t>华安新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33.54</t>
+          <t>22.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1130</t>
+          <t>0.1301</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2325,36 +1909,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010896</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平价值增长股票A</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.63</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0870</t>
+          <t>0.1281</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2363,36 +1947,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010897</t>
+          <t>010896</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平价值增长股票C</t>
+          <t>太平价值增长股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.63</t>
+          <t>85.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0744</t>
+          <t>0.0902</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2401,36 +1985,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005695</t>
+          <t>002364</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
+          <t>华安安康灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0515</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2439,36 +2023,188 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>005696</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2482,7 +2218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2503,7 +2239,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2533,32 +2269,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013414</t>
+          <t>006007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太平智远三个月定期开放股票</t>
+          <t>诺安积极配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5725</t>
+          <t>0.5157</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2571,36 +2307,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011738</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.41</t>
+          <t>16.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.32</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1988</t>
+          <t>0.5156</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2609,32 +2345,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011739</t>
+          <t>519110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+          <t>浦银安盛价值成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37.32</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1262</t>
+          <t>0.3871</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2647,36 +2383,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011390</t>
+          <t>519171</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安添祥6个月持有期混合型证券投资基金</t>
+          <t>浦银安盛医疗健康灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>90.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1172</t>
+          <t>0.3236</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2685,32 +2421,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010896</t>
+          <t>320012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平价值增长股票A</t>
+          <t>诺安主题精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0604</t>
+          <t>0.2574</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2723,36 +2459,300 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010897</t>
+          <t>519120</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平价值增长股票C</t>
+          <t>浦银安盛新兴产业混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>95.09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0983</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2766,128 +2766,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.13</v>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.53</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
+++ b/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.59</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -583,6 +600,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015688</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -859,404 +1196,6 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>013414</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>太平智远三个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5953</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011738</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>54.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3737</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011739</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>54.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1454</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1447</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011390</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安添祥6个月持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>33.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1130</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010896</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>太平价值增长股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.63</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0870</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010897</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>太平价值增长股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0744</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005695</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0515</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1331,22 +1270,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.51</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6640</t>
+          <t>0.5953</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1369,26 +1308,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>25.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>49.80</t>
+          <t>54.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4352</t>
+          <t>0.3737</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1407,26 +1346,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49.80</t>
+          <t>54.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1915</t>
+          <t>0.1454</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1435,36 +1374,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010896</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太平价值增长股票A</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.89</t>
+          <t>88.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1640</t>
+          <t>0.1447</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1473,36 +1412,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>33.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1594</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1511,36 +1450,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011390</t>
+          <t>010896</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安添祥6个月持有期混合型证券投资基金</t>
+          <t>太平价值增长股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>83.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1562</t>
+          <t>0.0870</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1559,26 +1498,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.89</t>
+          <t>83.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0884</t>
+          <t>0.0744</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1597,26 +1536,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0616</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1635,26 +1574,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,7 +1628,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1719,36 +1658,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002363</t>
+          <t>013414</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合A</t>
+          <t>太平智远三个月定期开放股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.08</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>82.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5261</t>
+          <t>0.6640</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1767,26 +1706,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.36</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>49.82</t>
+          <t>49.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4587</t>
+          <t>0.4352</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1805,26 +1744,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49.82</t>
+          <t>49.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1830</t>
+          <t>0.1915</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1833,36 +1772,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011390</t>
+          <t>010896</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安添祥6个月持有期混合型证券投资基金</t>
+          <t>太平价值增长股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.43</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.05</t>
+          <t>88.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1380</t>
+          <t>0.1640</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1871,36 +1810,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001312</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合A</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>90.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1301</t>
+          <t>0.1594</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1909,36 +1848,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1281</t>
+          <t>0.1562</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1947,36 +1886,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010896</t>
+          <t>010897</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平价值增长股票A</t>
+          <t>太平价值增长股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>88.89</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0902</t>
+          <t>0.0884</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1985,36 +1924,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002364</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.0616</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2023,187 +1962,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002144</t>
+          <t>005696</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0864</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010897</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>太平价值增长股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005695</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0675</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2269,32 +2056,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>002363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安积极配置混合A</t>
+          <t>华安安康灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>51.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5157</t>
+          <t>0.5261</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2307,36 +2094,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>011738</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>26.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>49.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5156</t>
+          <t>0.4587</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2345,36 +2132,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519110</t>
+          <t>011739</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合A</t>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>49.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3871</t>
+          <t>0.1830</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2383,36 +2170,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519171</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浦银安盛医疗健康灵活配置混合</t>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>29.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3236</t>
+          <t>0.1380</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2421,36 +2208,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>320012</t>
+          <t>001312</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安主题精选混合</t>
+          <t>华安新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>22.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2574</t>
+          <t>0.1301</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2459,36 +2246,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519120</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛新兴产业混合</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.09</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0983</t>
+          <t>0.1281</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2497,36 +2284,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519113</t>
+          <t>010896</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛精致生活混合</t>
+          <t>太平价值增长股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>85.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0957</t>
+          <t>0.0902</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2535,36 +2322,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010054</t>
+          <t>002364</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家健康产业混合A</t>
+          <t>华安安康灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.59</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0822</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2573,36 +2360,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006008</t>
+          <t>002144</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安积极配置混合C</t>
+          <t>华安新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>22.13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0432</t>
+          <t>0.0864</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2611,36 +2398,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>010897</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>太平价值增长股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.32</t>
+          <t>85.84</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0766</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2649,36 +2436,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010055</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家健康产业混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>87.59</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0675</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -2687,36 +2474,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519176</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合C</t>
+          <t>财通福盛多策略混合（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.32</t>
+          <t>88.53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0263</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2725,34 +2512,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>960031</t>
+          <t>005696</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合H</t>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2761,6 +2550,554 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
+++ b/数据整理/stocks/A股/创业板/300143-盈康生命.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.59</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -600,6 +617,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9004</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009401</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015688</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -919,7 +1218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1196,404 +1495,6 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>013414</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>太平智远三个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5953</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011738</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>54.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3737</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011739</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>54.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1454</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1447</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011390</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安添祥6个月持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>33.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1130</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010896</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>太平价值增长股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.63</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0870</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010897</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>太平价值增长股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0744</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005695</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0515</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1668,22 +1569,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.51</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6640</t>
+          <t>0.5953</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1706,26 +1607,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>25.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>49.80</t>
+          <t>54.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4352</t>
+          <t>0.3737</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1744,26 +1645,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49.80</t>
+          <t>54.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1915</t>
+          <t>0.1454</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1772,36 +1673,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010896</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太平价值增长股票A</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.89</t>
+          <t>88.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1640</t>
+          <t>0.1447</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1810,36 +1711,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>33.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1594</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1848,36 +1749,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011390</t>
+          <t>010896</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安添祥6个月持有期混合型证券投资基金</t>
+          <t>太平价值增长股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>83.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1562</t>
+          <t>0.0870</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1896,26 +1797,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.89</t>
+          <t>83.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0884</t>
+          <t>0.0744</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1934,26 +1835,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0616</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1972,26 +1873,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +1906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2026,7 +1927,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2056,36 +1957,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002363</t>
+          <t>013414</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合A</t>
+          <t>太平智远三个月定期开放股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.08</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>82.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5261</t>
+          <t>0.6640</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2104,26 +2005,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.36</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>49.82</t>
+          <t>49.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4587</t>
+          <t>0.4352</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2142,26 +2043,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49.82</t>
+          <t>49.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1830</t>
+          <t>0.1915</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2170,36 +2071,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011390</t>
+          <t>010896</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安添祥6个月持有期混合型证券投资基金</t>
+          <t>太平价值增长股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.43</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.05</t>
+          <t>88.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1380</t>
+          <t>0.1640</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2208,36 +2109,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001312</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合A</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>90.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1301</t>
+          <t>0.1594</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2246,36 +2147,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1281</t>
+          <t>0.1562</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2284,36 +2185,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010896</t>
+          <t>010897</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平价值增长股票A</t>
+          <t>太平价值增长股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>88.89</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0902</t>
+          <t>0.0884</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2322,36 +2223,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002364</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.0616</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2360,187 +2261,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002144</t>
+          <t>005696</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0864</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010897</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>太平价值增长股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005695</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0675</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2606,32 +2355,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>002363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安积极配置混合A</t>
+          <t>华安安康灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>51.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5157</t>
+          <t>0.5261</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2644,36 +2393,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>011738</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>26.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>49.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5156</t>
+          <t>0.4587</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2682,36 +2431,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519110</t>
+          <t>011739</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合A</t>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>49.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3871</t>
+          <t>0.1830</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2720,36 +2469,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519171</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浦银安盛医疗健康灵活配置混合</t>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>29.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3236</t>
+          <t>0.1380</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2758,36 +2507,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>320012</t>
+          <t>001312</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安主题精选混合</t>
+          <t>华安新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>22.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2574</t>
+          <t>0.1301</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2796,36 +2545,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519120</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛新兴产业混合</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.09</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0983</t>
+          <t>0.1281</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2834,36 +2583,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519113</t>
+          <t>010896</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛精致生活混合</t>
+          <t>太平价值增长股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>85.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0957</t>
+          <t>0.0902</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2872,36 +2621,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010054</t>
+          <t>002364</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家健康产业混合A</t>
+          <t>华安安康灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.59</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0822</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2910,36 +2659,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006008</t>
+          <t>002144</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安积极配置混合C</t>
+          <t>华安新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>22.13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0432</t>
+          <t>0.0864</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2948,36 +2697,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>010897</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>太平价值增长股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.32</t>
+          <t>85.84</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0766</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2986,36 +2735,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010055</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家健康产业混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>87.59</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0675</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -3024,36 +2773,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519176</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合C</t>
+          <t>财通福盛多策略混合（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.32</t>
+          <t>88.53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0263</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -3062,34 +2811,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>960031</t>
+          <t>005696</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合H</t>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3098,6 +2849,554 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
